--- a/data/evaluation/evaluation_North_Winter_Onions.xlsx
+++ b/data/evaluation/evaluation_North_Winter_Onions.xlsx
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5419.076407761205</v>
+        <v>5504.803756799791</v>
       </c>
       <c r="C4" t="n">
-        <v>80365375.9657532</v>
+        <v>81053854.79814251</v>
       </c>
       <c r="D4" t="n">
-        <v>8964.67377910391</v>
+        <v>9002.991436080705</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2409497200760556</v>
+        <v>0.2344470434672943</v>
       </c>
     </row>
     <row r="5">
